--- a/results/TEST_3_percentage_table.xlsx
+++ b/results/TEST_3_percentage_table.xlsx
@@ -490,7 +490,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="101" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
@@ -749,7 +749,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>P2 - Test question 2</t>
+          <t>P1 - Test question 1</t>
         </is>
       </c>
       <c r="B21" s="2" t="n"/>
@@ -786,22 +786,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>3</v>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="B24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
-        <v>4</v>
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
       </c>
       <c r="B25" s="6" t="n">
         <v>1</v>
@@ -814,8 +818,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>7</v>
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="B26" s="6" t="n">
         <v>1</v>
@@ -828,23 +834,25 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
-        <v>8</v>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
       </c>
       <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>Footer</t>
+          <t>Footer // This table was calculated by a variable operation P2 - Test question 2 * Expansion_factor</t>
         </is>
       </c>
       <c r="B28" s="8" t="n"/>
@@ -856,7 +864,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>P2 - Test question 2</t>
+          <t>P1 - Test question 1</t>
         </is>
       </c>
       <c r="B31" s="2" t="n"/>
@@ -899,42 +907,48 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>3</v>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
       </c>
       <c r="B34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>4</v>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
       </c>
       <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>7</v>
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
       </c>
       <c r="B36" s="6" t="n">
         <v>1</v>
@@ -950,26 +964,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>8</v>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
       </c>
       <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="inlineStr">
         <is>
-          <t>Footer</t>
+          <t>Footer // This table was calculated by a variable operation P2 - Test question 2 * Expansion_factor</t>
         </is>
       </c>
       <c r="B38" s="8" t="n"/>
@@ -1369,23 +1385,23 @@
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A66:E66"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A66:E66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1806,17 +1822,17 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/TEST_3_percentage_table.xlsx
+++ b/results/TEST_3_percentage_table.xlsx
@@ -65,8 +65,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c3b6a1"/>
-        <bgColor rgb="00c3b6a1"/>
+        <fgColor rgb="00C5D9F1"/>
+        <bgColor rgb="00C5D9F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -80,15 +80,15 @@
     </border>
     <border>
       <top style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </top>
       <bottom style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </bottom>
     </border>
     <border>
       <top style="medium">
-        <color rgb="0086754d"/>
+        <color rgb="00444444"/>
       </top>
     </border>
   </borders>
